--- a/biology/Botanique/Eucalyptus_acaciiformis/Eucalyptus_acaciiformis.xlsx
+++ b/biology/Botanique/Eucalyptus_acaciiformis/Eucalyptus_acaciiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’Eucalyptus acaciiformis est un arbre endémique des Plateaux du Nord de la Nouvelle-Galles du Sud[2] (New South Wales en anglais), Australie qui peut atteindre jusqu’à 20 m de haut. Il pousse dans les sols pauvres et peu profonds, sur les crêtes et les pentes. 
+L’Eucalyptus acaciiformis est un arbre endémique des Plateaux du Nord de la Nouvelle-Galles du Sud (New South Wales en anglais), Australie qui peut atteindre jusqu’à 20 m de haut. Il pousse dans les sols pauvres et peu profonds, sur les crêtes et les pentes. 
 Son écorce est rugueuse et fibreuse y compris sur les branches et est de couleur grise à brunâtre. 
-Les feuilles juvéniles sont opposées, sessiles et elliptiques. Elles sont longues de 2 à 5 cm, larges de 5 à 15 mm et de couleur gris-vert à bleu-vert[3]. Les feuilles matures, quant à elles, sont alternes, pétiolées et lancéolées à falciformes. Elles sont longues de 5 à 13 cm, larges de 1 à 2 cm et de couleur généralement verte à gris-vert mat[3].
+Les feuilles juvéniles sont opposées, sessiles et elliptiques. Elles sont longues de 2 à 5 cm, larges de 5 à 15 mm et de couleur gris-vert à bleu-vert. Les feuilles matures, quant à elles, sont alternes, pétiolées et lancéolées à falciformes. Elles sont longues de 5 à 13 cm, larges de 1 à 2 cm et de couleur généralement verte à gris-vert mat.
 La floraison a lieu de décembre à janvier et les fruits sont en forme de coupe ou de cloche. 
 </t>
         </is>
